--- a/example.xlsx
+++ b/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>INN</t>
   </si>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -415,6 +415,33 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>987654321</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>INN</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Dima</t>
+  </si>
+  <si>
+    <t>11112222333344400000</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -441,6 +444,9 @@
       <c r="A6" s="1">
         <v>123456789</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -39,7 +39,7 @@
     <t>Dima</t>
   </si>
   <si>
-    <t>11112222333344400000</t>
+    <t>123456789</t>
   </si>
 </sst>
 </file>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -397,8 +397,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>123456789</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -411,17 +411,13 @@
       <c r="A3" s="1">
         <v>987654321</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>123456789</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -434,18 +430,23 @@
         <v>987654321</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>123456789</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>INN</t>
   </si>
@@ -36,10 +36,10 @@
     <t>Vlad</t>
   </si>
   <si>
-    <t>Dima</t>
-  </si>
-  <si>
     <t>123456789</t>
+  </si>
+  <si>
+    <t>12345</t>
   </si>
 </sst>
 </file>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -398,7 +398,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -408,44 +408,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>987654321</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>987654321</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/example.xlsx
+++ b/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>INN</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>12345</t>
+  </si>
+  <si>
+    <t>012345678</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -415,6 +418,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>INN</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -433,6 +433,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>INN</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>012345678</t>
+  </si>
+  <si>
+    <t>123444444</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -432,20 +435,29 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/example.xlsx
+++ b/example.xlsx
@@ -15,6 +15,54 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Alcyone</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="1">
+      <text>
+        <t>Поле не может быть пустым
+Ошибка: в ИНН не только цифры или их количество не 9
+Ошибка: ИНН начинается не с 123</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1">
+      <text>
+        <t>Ошибка проверки на уникальность: дублируются строки 2 (123456789) и 5 (123456789) и 7 (123456789) и 8 (123456789)</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="1">
+      <text>
+        <t>Ошибка проверки на уникальность: дублируются строки 5 (123456789) и 2 (123456789) и 7 (123456789) и 8 (123456789)</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="1">
+      <text>
+        <t>Ошибка проверки на уникальность: дублируются строки 7 (123456789) и 2 (123456789) и 5 (123456789) и 8 (123456789)</t>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="1">
+      <text>
+        <t>Ошибка проверки на уникальность: дублируются строки 8 (123456789) и 2 (123456789) и 5 (123456789) и 7 (123456789)</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1">
+      <text>
+        <t>Ошибка: в ИНН не только цифры или их количество не 9</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="1">
+      <text>
+        <t>Ошибка: ИНН начинается не с 123</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
@@ -52,6 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -92,6 +141,10 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,23 +435,23 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.33203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
@@ -457,6 +510,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/example.xlsx
+++ b/example.xlsx
@@ -26,37 +26,46 @@
       <text>
         <t>Поле не может быть пустым
 Ошибка: в ИНН не только цифры или их количество не 9
+Ошибка: ИНН начинается не с 123
+Поле не может быть пустым
+Ошибка: в ИНН не только цифры или их количество не 9
 Ошибка: ИНН начинается не с 123</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1">
       <text>
-        <t>Ошибка проверки на уникальность: дублируются строки 2 (123456789) и 5 (123456789) и 7 (123456789) и 8 (123456789)</t>
+        <t>Ошибка проверки на уникальность: дублируются строки 2 (123456789) и 5 (123456789) и 7 (123456789) и 8 (123456789)
+Ошибка проверки на уникальность: дублируются строки 2 (123456789) и 5 (123456789) и 7 (123456789) и 8 (123456789)</t>
       </text>
     </comment>
     <comment ref="A5" authorId="1">
       <text>
-        <t>Ошибка проверки на уникальность: дублируются строки 5 (123456789) и 2 (123456789) и 7 (123456789) и 8 (123456789)</t>
+        <t>Ошибка проверки на уникальность: дублируются строки 5 (123456789) и 2 (123456789) и 7 (123456789) и 8 (123456789)
+Ошибка проверки на уникальность: дублируются строки 5 (123456789) и 2 (123456789) и 7 (123456789) и 8 (123456789)</t>
       </text>
     </comment>
     <comment ref="A7" authorId="1">
       <text>
-        <t>Ошибка проверки на уникальность: дублируются строки 7 (123456789) и 2 (123456789) и 5 (123456789) и 8 (123456789)</t>
+        <t>Ошибка проверки на уникальность: дублируются строки 7 (123456789) и 2 (123456789) и 5 (123456789) и 8 (123456789)
+Ошибка проверки на уникальность: дублируются строки 7 (123456789) и 2 (123456789) и 5 (123456789) и 8 (123456789)</t>
       </text>
     </comment>
     <comment ref="A8" authorId="1">
       <text>
-        <t>Ошибка проверки на уникальность: дублируются строки 8 (123456789) и 2 (123456789) и 5 (123456789) и 7 (123456789)</t>
+        <t>Ошибка проверки на уникальность: дублируются строки 8 (123456789) и 2 (123456789) и 5 (123456789) и 7 (123456789)
+Ошибка проверки на уникальность: дублируются строки 8 (123456789) и 2 (123456789) и 5 (123456789) и 7 (123456789)</t>
       </text>
     </comment>
     <comment ref="A3" authorId="1">
       <text>
-        <t>Ошибка: в ИНН не только цифры или их количество не 9</t>
+        <t>Ошибка: в ИНН не только цифры или их количество не 9
+Ошибка: в ИНН не только цифры или их количество не 9</t>
       </text>
     </comment>
     <comment ref="A6" authorId="1">
       <text>
-        <t>Ошибка: ИНН начинается не с 123</t>
+        <t>Ошибка: ИНН начинается не с 123
+Ошибка: ИНН начинается не с 123</t>
       </text>
     </comment>
   </commentList>
@@ -435,7 +444,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
